--- a/biology/Botanique/Syzygium_australe/Syzygium_australe.xlsx
+++ b/biology/Botanique/Syzygium_australe/Syzygium_australe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syzygium australe est une espèce d'arbre de la famille des Myrtaceae endémique dans les forêts tropicales de l'est de l'Australie. Il peut atteindre une hauteur maximale de 35 m avec un diamètre du tronc de 60 cm. Les feuilles sont opposées, simples, lancéolées de 4 à 8 cm de long. Les fleurs sont blanches et en grappes. Les fruits rouge foncé sont comestibles.
 Il est communément cultivé dans les jardins de l'est de l'Australie, sous forme de cultivars de taille plus petite. Ils sont souvent cultivés en haies. Les fruits agréablement acides sont consommés frais ou cuits. Ils peuvent être utilisés pour faire des confitures et gelées.
